--- a/Documentación/Tablas_BD.xlsx
+++ b/Documentación/Tablas_BD.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michw\Dropbox\APP_Refugio\Documentación\1 Sprint\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michw\Documents\Ingenieria de Software\PetGo\PetGO\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7C47C0-486B-454B-8CA9-88E4C77F4420}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85E7C93-BCD7-4C09-A75F-809B27D97D67}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4410" xr2:uid="{6AAF028B-1E43-431B-9DA9-B2EFB1786B61}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="32">
   <si>
     <t>Usuario</t>
   </si>
@@ -93,9 +93,6 @@
     <t>mensaje</t>
   </si>
   <si>
-    <t>id de publicación</t>
-  </si>
-  <si>
     <t>categoría</t>
   </si>
   <si>
@@ -112,6 +109,18 @@
   </si>
   <si>
     <t>contenido</t>
+  </si>
+  <si>
+    <t>Mascota Encontrada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*id de mascota </t>
+  </si>
+  <si>
+    <t xml:space="preserve">id de mascota </t>
+  </si>
+  <si>
+    <t>id de mascota enc.</t>
   </si>
 </sst>
 </file>
@@ -197,7 +206,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AFD261E-6AC4-4382-881F-9F8C87CDE888}">
-  <dimension ref="B6:J15"/>
+  <dimension ref="B6:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,14 +536,15 @@
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
     <col min="4" max="4" width="17.140625" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
     <col min="9" max="9" width="7" customWidth="1"/>
     <col min="10" max="10" width="16.85546875" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
@@ -546,10 +558,13 @@
         <v>17</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
@@ -563,10 +578,13 @@
         <v>18</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
@@ -576,14 +594,17 @@
       <c r="F8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>22</v>
+      <c r="H8" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>2</v>
       </c>
@@ -591,16 +612,19 @@
         <v>20</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>5</v>
+        <v>22</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L9" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>3</v>
       </c>
@@ -610,14 +634,14 @@
       <c r="F10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="J10" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>4</v>
       </c>
@@ -627,26 +651,31 @@
       <c r="F11" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="F12" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="F13" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L13" s="6"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="F14" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L14" s="6"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="F15" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="L15" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
